--- a/run_metrics.xlsx
+++ b/run_metrics.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFF00"/>
         <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
       </patternFill>
     </fill>
   </fills>
@@ -61,12 +67,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,293 +467,293 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AttentionUNet_LFCC_32_len5S</t>
+          <t>R2AttU_Net_lfcc-delta_32_len5S</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67.39130434782609</v>
+        <v>69.56521739130434</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5579307675361633</v>
+        <v>0.557578980922699</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AttentionUNet_lfcc-delta-delta_32_len5S</t>
+          <t>U_Net_delta_32_len30S</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.91304347826087</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5381553471088409</v>
+        <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>U_Net_lfcc-delta-delta_32_len5S</t>
+          <t>U_Net_delta_32_len30S</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.08695652173913</v>
+        <v>93.47826086956522</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5723033547401428</v>
+        <v>0.8856147925059</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>R2AttU_Net_MFCC_32_len5S</t>
+          <t>U_Net_delta_32_len30S</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69.56521739130434</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5817689299583435</v>
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>R2AttU_Net_delta-delta_32_len5S</t>
+          <t>U_Net_LFCC_80_len5S</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73.91304347826087</v>
+        <v>91.30434782608695</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6064977645874023</v>
+        <v>0.8510100543498993</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>U_Net_delta_80_len5S</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>69.56521739130434</v>
+          <t>U_Net_LFCC_32_len5S</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>95.65217391304348</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6144457757472992</v>
+        <v>0.8168511788050333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>U_Net_lfcc-delta-delta_32_len30S</t>
+          <t>AttentionUNet_lfcc-delta-delta_32_len5S</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>76.08695652173913</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5528329908847809</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>U_Net_LFCC_32_len5S</t>
+          <t>AttentionUNet_MFCC_32_len5S</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>73.91304347826087</v>
+        <v>67.39130434782609</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5816247860590616</v>
+        <v>0.5642368793487549</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>U_Net_delta_32_len30S</t>
+          <t>U_Net_MFCC_32_len5S</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.39130434782609</v>
+        <v>86.95652173913044</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5975880722204844</v>
+        <v>0.9281513889630636</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>U_Net_delta_32_len30S</t>
+          <t>AttentionUNet_delta_32_len5S</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>82.60869565217391</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5391703248023987</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>U_Net_delta_32_len5S</t>
+          <t>R2U_Net_LFCC_32_len5S</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>63.04347826086956</v>
+        <v>73.91304347826087</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6578056216239929</v>
+        <v>0.6428556889295578</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>U_Net_MFCC_80_len5S</t>
+          <t>U_Net_lfcc-delta-delta_32_len5S</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>76.08695652173913</v>
+        <v>78.26086956521739</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6022742092609406</v>
+        <v>0.9822227358818054</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>U_Net_lfcc-delta_32_len30S</t>
+          <t>R2U_Net_delta_32_len5S</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.73913043478261</v>
+        <v>73.91304347826087</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6148889064788818</v>
+        <v>0.5048011690378189</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>U_Net_lfcc-delta_32_len30S</t>
+          <t>R2AttU_Net_MFCC_32_len5S</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>76.08695652173913</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5616060495376587</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>R2AttU_Net_delta_32_len5S</t>
+          <t>U_Net_delta_32_len5S</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78.26086956521739</v>
+        <v>71.73913043478261</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5247934460639954</v>
+        <v>1.076469659805298</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AttentionUNet_lfcc-delta_32_len5S</t>
+          <t>R2AttU_Net_delta_32_len5S</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.91304347826087</v>
+        <v>69.56521739130434</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5427097231149673</v>
+        <v>0.5860709249973297</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>U_Net_delta-delta_32_len5S</t>
+          <t>U_Net_delta_80_len5S</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>58.69565217391305</v>
+        <v>63.04347826086956</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6423204143842062</v>
+        <v>1.033747345209122</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>R2U_Net_delta_32_len5S</t>
+          <t>U_Net_MFCC_32_len30S</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>78.26086956521739</v>
+        <v>89.1304347826087</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5741766691207886</v>
+        <v>0.8510035673777262</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>R2AttU_Net_lfcc-delta-delta_32_len5S</t>
+          <t>U_Net_MFCC_32_len30S</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>71.73913043478261</v>
+        <v>86.95652173913044</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6232963800430298</v>
+        <v>0.8733596205711365</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>U_Net_lfcc-delta_32_len5S</t>
+          <t>U_Net_MFCC_32_len30S</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>78.26086956521739</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.5364510814348856</v>
+        <v>0</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>R2U_Net_delta-delta_32_len5S</t>
+          <t>AttentionUNet_LFCC_32_len5S</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.56521739130434</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.6311409175395966</v>
+        <v>82.60869565217391</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>0.4653773456811905</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>R2AttU_Net_lfcc-delta_32_len5S</t>
+          <t>R2AttU_Net_lfcc-delta-delta_32_len5S</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>58.69565217391305</v>
+        <v>54.34782608695652</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6667028069496155</v>
+        <v>0.6629349291324615</v>
       </c>
     </row>
     <row r="24">
@@ -756,57 +763,57 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>71.73913043478261</v>
+        <v>89.1304347826087</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5703217685222626</v>
+        <v>0.9213963150978088</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>U_Net_MFCC_32_len30S</t>
+          <t>R2U_Net_MFCC_32_len5S</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>80.43478260869566</v>
+        <v>50</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4891441067059835</v>
+        <v>0.6707836836576462</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>U_Net_MFCC_32_len30S</t>
+          <t>U_Net_delta-delta_32_len30S</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>78.26086956521739</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9564621647198995</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>U_Net_LFCC_32_len30S</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>84.78260869565217</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.46284352739652</v>
+          <t>U_Net_delta-delta_32_len30S</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>U_Net_LFCC_32_len30S</t>
+          <t>U_Net_lfcc-delta-delta_32_len30S</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -821,81 +828,226 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AttentionUNet_delta_32_len5S</t>
+          <t>U_Net_lfcc-delta-delta_32_len30S</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>69.56521739130434</v>
+        <v>63.04347826086956</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5166951715946198</v>
+        <v>1.059326450030009</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>U_Net_delta-delta_32_len30S</t>
+          <t>U_Net_delta-delta_32_len5S</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>63.04347826086956</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.100150108337402</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>U_Net_delta-delta_32_len30S</t>
+          <t>U_Net_lfcc-delta_32_len30S</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>73.91304347826087</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.5577747623125712</v>
+        <v>0</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AttentionUNet_MFCC_32_len5S</t>
+          <t>U_Net_lfcc-delta_32_len30S</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>73.91304347826087</v>
+        <v>84.78260869565217</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5551608800888062</v>
+        <v>0.9093547463417053</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>AttentionUNet_delta-delta_32_len5S</t>
+          <t>U_Net_LFCC_32_len30S</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>65.21739130434783</v>
+        <v>86.95652173913044</v>
       </c>
       <c r="C33" t="n">
-        <v>0.623989462852478</v>
+        <v>0.8723922967910767</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>U_Net_LFCC_32_len30S</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>R2U_Net_lfcc-delta_32_len5S</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>78.26086956521739</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.5619004666805267</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>R2AttU_Net_delta-delta_32_len5S</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>58.69565217391305</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.665488988161087</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>R2U_Net_lfcc-delta-delta_32_len5S</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>67.39130434782609</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5734604299068451</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>R2AttU_Net_LFCC_32_len5S</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>73.91304347826087</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.533536896109581</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AttentionUNet_lfcc-delta_32_len5S</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>78.26086956521739</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.5578003972768784</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta_80_len5S</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>93.47826086956522</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.8924888968467712</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>R2U_Net_delta-delta_32_len5S</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>73.91304347826087</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.621788889169693</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>U_Net_delta-delta_80_len5S</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>54.34782608695652</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.6456651091575623</v>
+      <c r="B42" t="n">
+        <v>50</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.081704556941986</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>AttentionUNet_delta-delta_32_len5S</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>60.8695652173913</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.5899332761764526</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>U_Net_MFCC_80_len5S</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>78.26086956521739</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.9191123247146606</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>U_Net_lfcc-delta_32_len5S</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>67.39130434782609</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.047885318597158</v>
       </c>
     </row>
   </sheetData>

--- a/run_metrics.xlsx
+++ b/run_metrics.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,10 +455,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Model Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Transformation Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Features</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Length of Chunks (s)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Parameters</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Best Accuracy</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Least Loss</t>
         </is>
@@ -470,10 +495,29 @@
           <t>R2AttU_Net_lfcc-delta_32_len5S</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>R2AttU_Net</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>lfcc-delta</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>32</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>39442992</v>
+      </c>
+      <c r="G2" t="n">
         <v>69.56521739130434</v>
       </c>
-      <c r="C2" t="n">
+      <c r="H2" t="n">
         <v>0.557578980922699</v>
       </c>
     </row>
@@ -483,570 +527,1149 @@
           <t>U_Net_delta_32_len30S</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E3" t="n">
+        <v>30</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G3" t="n">
+        <v>93.47826086956522</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8856147925059</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>U_Net_delta_32_len30S</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>93.47826086956522</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8856147925059</v>
+          <t>U_Net_LFCC_80_len5S</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LFCC</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>80</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G4" t="n">
+        <v>91.30434782608695</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8510100543498993</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>U_Net_delta_32_len30S</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
+          <t>U_Net_LFCC_32_len5S</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
+          <t>LFCC</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>32</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>95.65217391304348</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8168511788050333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>U_Net_LFCC_80_len5S</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>91.30434782608695</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8510100543498993</v>
+          <t>AttentionUNet_lfcc-delta-delta_32_len5S</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AttentionUNet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>lfcc-delta-delta</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>32</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>34877486</v>
+      </c>
+      <c r="G6" t="n">
+        <v>76.08695652173913</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5528329908847809</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>U_Net_LFCC_32_len5S</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>95.65217391304348</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8168511788050333</v>
+          <t>AttentionUNet_MFCC_32_len5S</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AttentionUNet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MFCC</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>32</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>34877486</v>
+      </c>
+      <c r="G7" t="n">
+        <v>67.39130434782609</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5642368793487549</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AttentionUNet_lfcc-delta-delta_32_len5S</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>76.08695652173913</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5528329908847809</v>
+          <t>U_Net_MFCC_32_len5S</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MFCC</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>32</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G8" t="n">
+        <v>86.95652173913044</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9281513889630636</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AttentionUNet_MFCC_32_len5S</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>67.39130434782609</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5642368793487549</v>
+          <t>AttentionUNet_delta_32_len5S</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AttentionUNet</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>32</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>34877486</v>
+      </c>
+      <c r="G9" t="n">
+        <v>82.60869565217391</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5391703248023987</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>U_Net_MFCC_32_len5S</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>86.95652173913044</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9281513889630636</v>
+          <t>R2U_Net_LFCC_32_len5S</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>R2U_Net</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LFCC</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>32</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>39091460</v>
+      </c>
+      <c r="G10" t="n">
+        <v>73.91304347826087</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.6428556889295578</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AttentionUNet_delta_32_len5S</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>82.60869565217391</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5391703248023987</v>
+          <t>U_Net_lfcc-delta-delta_32_len5S</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>lfcc-delta-delta</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>32</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G11" t="n">
+        <v>78.26086956521739</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9822227358818054</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>R2U_Net_LFCC_32_len5S</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+          <t>R2U_Net_delta_32_len5S</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>R2U_Net</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>32</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>39091460</v>
+      </c>
+      <c r="G12" t="n">
         <v>73.91304347826087</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.6428556889295578</v>
+      <c r="H12" t="n">
+        <v>0.5048011690378189</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>U_Net_lfcc-delta-delta_32_len5S</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>78.26086956521739</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9822227358818054</v>
+          <t>R2AttU_Net_MFCC_32_len5S</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>R2AttU_Net</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MFCC</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>32</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>39442992</v>
+      </c>
+      <c r="G13" t="n">
+        <v>76.08695652173913</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5616060495376587</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>R2U_Net_delta_32_len5S</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>73.91304347826087</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5048011690378189</v>
+          <t>U_Net_delta_32_len5S</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>32</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G14" t="n">
+        <v>71.73913043478261</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.076469659805298</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>R2AttU_Net_MFCC_32_len5S</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>76.08695652173913</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.5616060495376587</v>
+          <t>R2AttU_Net_delta_32_len5S</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>R2AttU_Net</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>32</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>39442992</v>
+      </c>
+      <c r="G15" t="n">
+        <v>69.56521739130434</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5860709249973297</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>U_Net_delta_32_len5S</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>71.73913043478261</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.076469659805298</v>
+          <t>U_Net_delta_80_len5S</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>80</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G16" t="n">
+        <v>63.04347826086956</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.033747345209122</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>R2AttU_Net_delta_32_len5S</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>69.56521739130434</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5860709249973297</v>
+          <t>U_Net_MFCC_32_len30S</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MFCC</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>32</v>
+      </c>
+      <c r="E17" t="n">
+        <v>30</v>
+      </c>
+      <c r="F17" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G17" t="n">
+        <v>89.1304347826087</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8510035673777262</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>U_Net_delta_80_len5S</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>63.04347826086956</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.033747345209122</v>
+          <t>U_Net_MFCC_32_len30S</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MFCC</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>32</v>
+      </c>
+      <c r="E18" t="n">
+        <v>30</v>
+      </c>
+      <c r="F18" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G18" t="n">
+        <v>86.95652173913044</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8733596205711365</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>U_Net_MFCC_32_len30S</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>89.1304347826087</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.8510035673777262</v>
+          <t>AttentionUNet_LFCC_32_len5S</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AttentionUNet</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>LFCC</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>32</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>34877486</v>
+      </c>
+      <c r="G19" t="n">
+        <v>82.60869565217391</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>0.4653773456811905</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>U_Net_MFCC_32_len30S</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>86.95652173913044</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.8733596205711365</v>
+          <t>R2AttU_Net_lfcc-delta-delta_32_len5S</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>R2AttU_Net</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>lfcc-delta-delta</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>32</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>39442992</v>
+      </c>
+      <c r="G20" t="n">
+        <v>54.34782608695652</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.6629349291324615</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>U_Net_MFCC_32_len30S</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
+          <t>U_Net_lfcc-delta-delta_80_len5S</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
+          <t>lfcc-delta-delta</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>80</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G21" t="n">
+        <v>89.1304347826087</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9213963150978088</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AttentionUNet_LFCC_32_len5S</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>82.60869565217391</v>
-      </c>
-      <c r="C22" s="3" t="n">
-        <v>0.4653773456811905</v>
+          <t>R2U_Net_MFCC_32_len5S</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>R2U_Net</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MFCC</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>32</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>39091460</v>
+      </c>
+      <c r="G22" t="n">
+        <v>50</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.6707836836576462</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>R2AttU_Net_lfcc-delta-delta_32_len5S</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>54.34782608695652</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.6629349291324615</v>
+          <t>U_Net_delta-delta_32_len30S</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>delta-delta</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>32</v>
+      </c>
+      <c r="E23" t="n">
+        <v>30</v>
+      </c>
+      <c r="F23" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G23" t="n">
+        <v>78.26086956521739</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9564621647198995</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>U_Net_lfcc-delta-delta_80_len5S</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>89.1304347826087</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.9213963150978088</v>
+          <t>U_Net_lfcc-delta-delta_32_len30S</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>lfcc-delta-delta</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>32</v>
+      </c>
+      <c r="E24" t="n">
+        <v>30</v>
+      </c>
+      <c r="F24" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G24" t="n">
+        <v>63.04347826086956</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.059326450030009</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>R2U_Net_MFCC_32_len5S</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>50</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.6707836836576462</v>
+          <t>U_Net_delta-delta_32_len5S</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>delta-delta</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>32</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G25" t="n">
+        <v>63.04347826086956</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.100150108337402</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>U_Net_delta-delta_32_len30S</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>78.26086956521739</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.9564621647198995</v>
+          <t>U_Net_lfcc-delta_32_len30S</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>lfcc-delta</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>32</v>
+      </c>
+      <c r="E26" t="n">
+        <v>30</v>
+      </c>
+      <c r="F26" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G26" t="n">
+        <v>84.78260869565217</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.9093547463417053</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>U_Net_delta-delta_32_len30S</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
+          <t>U_Net_LFCC_32_len30S</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
+          <t>LFCC</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>32</v>
+      </c>
+      <c r="E27" t="n">
+        <v>30</v>
+      </c>
+      <c r="F27" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G27" t="n">
+        <v>86.95652173913044</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.8723922967910767</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>U_Net_lfcc-delta-delta_32_len30S</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
+          <t>R2U_Net_lfcc-delta_32_len5S</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>R2U_Net</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
+          <t>lfcc-delta</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>32</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>39091460</v>
+      </c>
+      <c r="G28" t="n">
+        <v>78.26086956521739</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.5619004666805267</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>U_Net_lfcc-delta-delta_32_len30S</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>63.04347826086956</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1.059326450030009</v>
+          <t>R2AttU_Net_delta-delta_32_len5S</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>R2AttU_Net</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>delta-delta</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>32</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>39442992</v>
+      </c>
+      <c r="G29" t="n">
+        <v>58.69565217391305</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.665488988161087</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>U_Net_delta-delta_32_len5S</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>63.04347826086956</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1.100150108337402</v>
+          <t>R2U_Net_lfcc-delta-delta_32_len5S</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>R2U_Net</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>lfcc-delta-delta</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>32</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>39091460</v>
+      </c>
+      <c r="G30" t="n">
+        <v>67.39130434782609</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.5734604299068451</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>U_Net_lfcc-delta_32_len30S</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
+          <t>R2AttU_Net_LFCC_32_len5S</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>R2AttU_Net</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
+          <t>LFCC</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>32</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>39442992</v>
+      </c>
+      <c r="G31" t="n">
+        <v>73.91304347826087</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.533536896109581</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>U_Net_lfcc-delta_32_len30S</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>84.78260869565217</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.9093547463417053</v>
+          <t>AttentionUNet_lfcc-delta_32_len5S</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>AttentionUNet</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>lfcc-delta</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>32</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5</v>
+      </c>
+      <c r="F32" t="n">
+        <v>34877486</v>
+      </c>
+      <c r="G32" t="n">
+        <v>78.26086956521739</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.5578003972768784</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>U_Net_LFCC_32_len30S</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>86.95652173913044</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.8723922967910767</v>
+          <t>U_Net_lfcc-delta_80_len5S</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>lfcc-delta</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>80</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G33" t="n">
+        <v>93.47826086956522</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8924888968467712</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>U_Net_LFCC_32_len30S</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
+          <t>R2U_Net_delta-delta_32_len5S</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>R2U_Net</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
+          <t>delta-delta</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>32</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>39091460</v>
+      </c>
+      <c r="G34" t="n">
+        <v>73.91304347826087</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.621788889169693</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>R2U_Net_lfcc-delta_32_len5S</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>78.26086956521739</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.5619004666805267</v>
+          <t>U_Net_delta-delta_80_len5S</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>delta-delta</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>80</v>
+      </c>
+      <c r="E35" t="n">
+        <v>5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G35" t="n">
+        <v>50</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.081704556941986</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>R2AttU_Net_delta-delta_32_len5S</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>58.69565217391305</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.665488988161087</v>
+          <t>AttentionUNet_delta-delta_32_len5S</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>AttentionUNet</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>delta-delta</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>32</v>
+      </c>
+      <c r="E36" t="n">
+        <v>5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>34877486</v>
+      </c>
+      <c r="G36" t="n">
+        <v>60.8695652173913</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.5899332761764526</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>R2U_Net_lfcc-delta-delta_32_len5S</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>67.39130434782609</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.5734604299068451</v>
+          <t>U_Net_MFCC_80_len5S</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>MFCC</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>80</v>
+      </c>
+      <c r="E37" t="n">
+        <v>5</v>
+      </c>
+      <c r="F37" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G37" t="n">
+        <v>78.26086956521739</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.9191123247146606</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>R2AttU_Net_LFCC_32_len5S</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>73.91304347826087</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.533536896109581</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>AttentionUNet_lfcc-delta_32_len5S</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>78.26086956521739</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.5578003972768784</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>U_Net_lfcc-delta_80_len5S</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>93.47826086956522</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.8924888968467712</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>R2U_Net_delta-delta_32_len5S</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>73.91304347826087</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.621788889169693</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>U_Net_delta-delta_80_len5S</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>50</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1.081704556941986</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>AttentionUNet_delta-delta_32_len5S</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>60.8695652173913</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.5899332761764526</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>U_Net_MFCC_80_len5S</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>78.26086956521739</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.9191123247146606</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
           <t>U_Net_lfcc-delta_32_len5S</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>U_Net</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>lfcc-delta</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>32</v>
+      </c>
+      <c r="E38" t="n">
+        <v>5</v>
+      </c>
+      <c r="F38" t="n">
+        <v>34526084</v>
+      </c>
+      <c r="G38" t="n">
         <v>67.39130434782609</v>
       </c>
-      <c r="C45" t="n">
+      <c r="H38" t="n">
         <v>1.047885318597158</v>
       </c>
     </row>
